--- a/Output/Drive/16. Comercio.xlsx
+++ b/Output/Drive/16. Comercio.xlsx
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="467">
   <si>
-    <t xml:space="preserve">Municipio</t>
+    <t xml:space="preserve">CVE_MUN</t>
   </si>
   <si>
     <t xml:space="preserve">Puntos de atención LICONSA</t>
@@ -50,7 +50,7 @@
     <t xml:space="preserve">Dispensarios de combustible Gasolinerias</t>
   </si>
   <si>
-    <t xml:space="preserve">Acatlán</t>
+    <t xml:space="preserve">13001</t>
   </si>
   <si>
     <t xml:space="preserve">2</t>
@@ -80,7 +80,7 @@
     <t xml:space="preserve">6</t>
   </si>
   <si>
-    <t xml:space="preserve">Acaxochitlán</t>
+    <t xml:space="preserve">13002</t>
   </si>
   <si>
     <t xml:space="preserve">274</t>
@@ -101,7 +101,7 @@
     <t xml:space="preserve">4</t>
   </si>
   <si>
-    <t xml:space="preserve">Actopan</t>
+    <t xml:space="preserve">13003</t>
   </si>
   <si>
     <t xml:space="preserve">1142</t>
@@ -125,7 +125,7 @@
     <t xml:space="preserve">22</t>
   </si>
   <si>
-    <t xml:space="preserve">Agua Blanca de Iturbide</t>
+    <t xml:space="preserve">13004</t>
   </si>
   <si>
     <t xml:space="preserve">3</t>
@@ -146,7 +146,7 @@
     <t xml:space="preserve">12</t>
   </si>
   <si>
-    <t xml:space="preserve">Ajacuba</t>
+    <t xml:space="preserve">13005</t>
   </si>
   <si>
     <t xml:space="preserve">788</t>
@@ -161,7 +161,7 @@
     <t xml:space="preserve">1274.08</t>
   </si>
   <si>
-    <t xml:space="preserve">Alfajayucan</t>
+    <t xml:space="preserve">13006</t>
   </si>
   <si>
     <t xml:space="preserve">1147</t>
@@ -179,7 +179,7 @@
     <t xml:space="preserve">14</t>
   </si>
   <si>
-    <t xml:space="preserve">Almoloya</t>
+    <t xml:space="preserve">13007</t>
   </si>
   <si>
     <t xml:space="preserve">359</t>
@@ -194,7 +194,7 @@
     <t xml:space="preserve">339.01</t>
   </si>
   <si>
-    <t xml:space="preserve">Apan</t>
+    <t xml:space="preserve">13008</t>
   </si>
   <si>
     <t xml:space="preserve">2248</t>
@@ -212,7 +212,7 @@
     <t xml:space="preserve">17</t>
   </si>
   <si>
-    <t xml:space="preserve">Atitalaquia</t>
+    <t xml:space="preserve">13010</t>
   </si>
   <si>
     <t xml:space="preserve">933</t>
@@ -230,7 +230,7 @@
     <t xml:space="preserve">18</t>
   </si>
   <si>
-    <t xml:space="preserve">Atlapexco</t>
+    <t xml:space="preserve">13011</t>
   </si>
   <si>
     <t xml:space="preserve">304</t>
@@ -248,7 +248,7 @@
     <t xml:space="preserve">13</t>
   </si>
   <si>
-    <t xml:space="preserve">Atotonilco de Tula</t>
+    <t xml:space="preserve">13013</t>
   </si>
   <si>
     <t xml:space="preserve">7</t>
@@ -272,7 +272,7 @@
     <t xml:space="preserve">45</t>
   </si>
   <si>
-    <t xml:space="preserve">Atotonilco el Grande</t>
+    <t xml:space="preserve">13012</t>
   </si>
   <si>
     <t xml:space="preserve">1577</t>
@@ -287,7 +287,7 @@
     <t xml:space="preserve">2213.64</t>
   </si>
   <si>
-    <t xml:space="preserve">Calnali</t>
+    <t xml:space="preserve">13014</t>
   </si>
   <si>
     <t xml:space="preserve">1561</t>
@@ -302,7 +302,7 @@
     <t xml:space="preserve">1123.74</t>
   </si>
   <si>
-    <t xml:space="preserve">Cardonal</t>
+    <t xml:space="preserve">13015</t>
   </si>
   <si>
     <t xml:space="preserve">468</t>
@@ -317,7 +317,7 @@
     <t xml:space="preserve">501.05</t>
   </si>
   <si>
-    <t xml:space="preserve">Chapantongo</t>
+    <t xml:space="preserve">13017</t>
   </si>
   <si>
     <t xml:space="preserve">819</t>
@@ -332,7 +332,7 @@
     <t xml:space="preserve">1717.63</t>
   </si>
   <si>
-    <t xml:space="preserve">Chapulhuacán</t>
+    <t xml:space="preserve">13018</t>
   </si>
   <si>
     <t xml:space="preserve">1454</t>
@@ -350,7 +350,7 @@
     <t xml:space="preserve">29</t>
   </si>
   <si>
-    <t xml:space="preserve">Chilcuautla</t>
+    <t xml:space="preserve">13019</t>
   </si>
   <si>
     <t xml:space="preserve">530</t>
@@ -365,7 +365,7 @@
     <t xml:space="preserve">573.19000000000005</t>
   </si>
   <si>
-    <t xml:space="preserve">Cuautepec de Hinojosa</t>
+    <t xml:space="preserve">13016</t>
   </si>
   <si>
     <t xml:space="preserve">838</t>
@@ -383,7 +383,7 @@
     <t xml:space="preserve">15</t>
   </si>
   <si>
-    <t xml:space="preserve">El Arenal</t>
+    <t xml:space="preserve">13009</t>
   </si>
   <si>
     <t xml:space="preserve">529</t>
@@ -398,7 +398,7 @@
     <t xml:space="preserve">941</t>
   </si>
   <si>
-    <t xml:space="preserve">Eloxochitlán</t>
+    <t xml:space="preserve">13020</t>
   </si>
   <si>
     <t xml:space="preserve">164</t>
@@ -413,7 +413,7 @@
     <t xml:space="preserve">195.77</t>
   </si>
   <si>
-    <t xml:space="preserve">Emiliano Zapata</t>
+    <t xml:space="preserve">13021</t>
   </si>
   <si>
     <t xml:space="preserve">691</t>
@@ -428,7 +428,7 @@
     <t xml:space="preserve">1213.22</t>
   </si>
   <si>
-    <t xml:space="preserve">Epazoyucan</t>
+    <t xml:space="preserve">13022</t>
   </si>
   <si>
     <t xml:space="preserve">721</t>
@@ -443,7 +443,7 @@
     <t xml:space="preserve">895.25</t>
   </si>
   <si>
-    <t xml:space="preserve">Francisco I. Madero</t>
+    <t xml:space="preserve">13023</t>
   </si>
   <si>
     <t xml:space="preserve">356</t>
@@ -458,7 +458,7 @@
     <t xml:space="preserve">355.9</t>
   </si>
   <si>
-    <t xml:space="preserve">Huasca de Ocampo</t>
+    <t xml:space="preserve">13024</t>
   </si>
   <si>
     <t xml:space="preserve">454</t>
@@ -473,7 +473,7 @@
     <t xml:space="preserve">747.76</t>
   </si>
   <si>
-    <t xml:space="preserve">Huautla</t>
+    <t xml:space="preserve">13025</t>
   </si>
   <si>
     <t xml:space="preserve">99</t>
@@ -488,7 +488,7 @@
     <t xml:space="preserve">73.8</t>
   </si>
   <si>
-    <t xml:space="preserve">Huazalingo</t>
+    <t xml:space="preserve">13026</t>
   </si>
   <si>
     <t xml:space="preserve">381</t>
@@ -506,7 +506,7 @@
     <t xml:space="preserve">16</t>
   </si>
   <si>
-    <t xml:space="preserve">Huehuetla</t>
+    <t xml:space="preserve">13027</t>
   </si>
   <si>
     <t xml:space="preserve">1384</t>
@@ -521,7 +521,7 @@
     <t xml:space="preserve">841.43</t>
   </si>
   <si>
-    <t xml:space="preserve">Huejutla de Reyes</t>
+    <t xml:space="preserve">13028</t>
   </si>
   <si>
     <t xml:space="preserve">746</t>
@@ -542,7 +542,7 @@
     <t xml:space="preserve">30</t>
   </si>
   <si>
-    <t xml:space="preserve">Huichapan</t>
+    <t xml:space="preserve">13029</t>
   </si>
   <si>
     <t xml:space="preserve">2804</t>
@@ -563,7 +563,7 @@
     <t xml:space="preserve">21</t>
   </si>
   <si>
-    <t xml:space="preserve">Ixmiquilpan</t>
+    <t xml:space="preserve">13030</t>
   </si>
   <si>
     <t xml:space="preserve">1019</t>
@@ -581,7 +581,7 @@
     <t xml:space="preserve">44</t>
   </si>
   <si>
-    <t xml:space="preserve">Jacala de Ledezma</t>
+    <t xml:space="preserve">13031</t>
   </si>
   <si>
     <t xml:space="preserve">739</t>
@@ -596,7 +596,7 @@
     <t xml:space="preserve">1048.8499999999999</t>
   </si>
   <si>
-    <t xml:space="preserve">Jaltocán</t>
+    <t xml:space="preserve">13032</t>
   </si>
   <si>
     <t xml:space="preserve">124</t>
@@ -611,7 +611,7 @@
     <t xml:space="preserve">105.37</t>
   </si>
   <si>
-    <t xml:space="preserve">Juárez Hidalgo</t>
+    <t xml:space="preserve">13033</t>
   </si>
   <si>
     <t xml:space="preserve">206</t>
@@ -626,7 +626,7 @@
     <t xml:space="preserve">244.44</t>
   </si>
   <si>
-    <t xml:space="preserve">La Misión</t>
+    <t xml:space="preserve">13040</t>
   </si>
   <si>
     <t xml:space="preserve">1157</t>
@@ -641,7 +641,7 @@
     <t xml:space="preserve">1266.9100000000001</t>
   </si>
   <si>
-    <t xml:space="preserve">Lolotla</t>
+    <t xml:space="preserve">13034</t>
   </si>
   <si>
     <t xml:space="preserve">473</t>
@@ -656,7 +656,7 @@
     <t xml:space="preserve">338.72</t>
   </si>
   <si>
-    <t xml:space="preserve">Metepec</t>
+    <t xml:space="preserve">13035</t>
   </si>
   <si>
     <t xml:space="preserve">231</t>
@@ -671,7 +671,7 @@
     <t xml:space="preserve">385.13</t>
   </si>
   <si>
-    <t xml:space="preserve">Metztitlán</t>
+    <t xml:space="preserve">13037</t>
   </si>
   <si>
     <t xml:space="preserve">441</t>
@@ -683,7 +683,7 @@
     <t xml:space="preserve">573.70000000000005</t>
   </si>
   <si>
-    <t xml:space="preserve">Mineral de la Reforma</t>
+    <t xml:space="preserve">13051</t>
   </si>
   <si>
     <t xml:space="preserve">6108</t>
@@ -707,7 +707,7 @@
     <t xml:space="preserve">102</t>
   </si>
   <si>
-    <t xml:space="preserve">Mineral del Chico</t>
+    <t xml:space="preserve">13038</t>
   </si>
   <si>
     <t xml:space="preserve">448</t>
@@ -722,7 +722,7 @@
     <t xml:space="preserve">705.78</t>
   </si>
   <si>
-    <t xml:space="preserve">Mineral del Monte</t>
+    <t xml:space="preserve">13039</t>
   </si>
   <si>
     <t xml:space="preserve">694</t>
@@ -737,7 +737,7 @@
     <t xml:space="preserve">1515.86</t>
   </si>
   <si>
-    <t xml:space="preserve">Mixquiahuala de Juárez</t>
+    <t xml:space="preserve">13041</t>
   </si>
   <si>
     <t xml:space="preserve">1034</t>
@@ -752,7 +752,7 @@
     <t xml:space="preserve">1833.73</t>
   </si>
   <si>
-    <t xml:space="preserve">Molango de Escamilla</t>
+    <t xml:space="preserve">13042</t>
   </si>
   <si>
     <t xml:space="preserve">489</t>
@@ -767,7 +767,7 @@
     <t xml:space="preserve">422.17</t>
   </si>
   <si>
-    <t xml:space="preserve">Nicolás Flores</t>
+    <t xml:space="preserve">13043</t>
   </si>
   <si>
     <t xml:space="preserve">150</t>
@@ -782,7 +782,7 @@
     <t xml:space="preserve">124.56</t>
   </si>
   <si>
-    <t xml:space="preserve">Nopala de Villagrán</t>
+    <t xml:space="preserve">13044</t>
   </si>
   <si>
     <t xml:space="preserve">1343</t>
@@ -797,7 +797,7 @@
     <t xml:space="preserve">1799.42</t>
   </si>
   <si>
-    <t xml:space="preserve">Omitlán de Juárez</t>
+    <t xml:space="preserve">13045</t>
   </si>
   <si>
     <t xml:space="preserve">760</t>
@@ -809,7 +809,7 @@
     <t xml:space="preserve">583.49</t>
   </si>
   <si>
-    <t xml:space="preserve">Pachuca de Soto</t>
+    <t xml:space="preserve">13048</t>
   </si>
   <si>
     <t xml:space="preserve">7307</t>
@@ -827,7 +827,7 @@
     <t xml:space="preserve">187</t>
   </si>
   <si>
-    <t xml:space="preserve">Pacula</t>
+    <t xml:space="preserve">13047</t>
   </si>
   <si>
     <t xml:space="preserve">194</t>
@@ -842,7 +842,7 @@
     <t xml:space="preserve">295.08999999999997</t>
   </si>
   <si>
-    <t xml:space="preserve">Pisaflores</t>
+    <t xml:space="preserve">13049</t>
   </si>
   <si>
     <t xml:space="preserve">1922</t>
@@ -860,7 +860,7 @@
     <t xml:space="preserve">24</t>
   </si>
   <si>
-    <t xml:space="preserve">Progreso de Obregón</t>
+    <t xml:space="preserve">13050</t>
   </si>
   <si>
     <t xml:space="preserve">498</t>
@@ -878,7 +878,7 @@
     <t xml:space="preserve">20</t>
   </si>
   <si>
-    <t xml:space="preserve">San Agustín Metzquititlán</t>
+    <t xml:space="preserve">13036</t>
   </si>
   <si>
     <t xml:space="preserve">553</t>
@@ -893,7 +893,7 @@
     <t xml:space="preserve">588.38</t>
   </si>
   <si>
-    <t xml:space="preserve">San Agustín Tlaxiaca</t>
+    <t xml:space="preserve">13052</t>
   </si>
   <si>
     <t xml:space="preserve">980</t>
@@ -911,7 +911,7 @@
     <t xml:space="preserve">23</t>
   </si>
   <si>
-    <t xml:space="preserve">San Bartolo Tutotepec</t>
+    <t xml:space="preserve">13053</t>
   </si>
   <si>
     <t xml:space="preserve">762</t>
@@ -926,7 +926,7 @@
     <t xml:space="preserve">524.66</t>
   </si>
   <si>
-    <t xml:space="preserve">San Felipe Orizatlán</t>
+    <t xml:space="preserve">13046</t>
   </si>
   <si>
     <t xml:space="preserve">1082</t>
@@ -941,7 +941,7 @@
     <t xml:space="preserve">853.31</t>
   </si>
   <si>
-    <t xml:space="preserve">San Salvador</t>
+    <t xml:space="preserve">13054</t>
   </si>
   <si>
     <t xml:space="preserve">574</t>
@@ -956,7 +956,7 @@
     <t xml:space="preserve">447.59</t>
   </si>
   <si>
-    <t xml:space="preserve">Santiago de Anaya</t>
+    <t xml:space="preserve">13055</t>
   </si>
   <si>
     <t xml:space="preserve">152</t>
@@ -971,7 +971,7 @@
     <t xml:space="preserve">240.44</t>
   </si>
   <si>
-    <t xml:space="preserve">Santiago Tulantepec de Lugo Guerrero</t>
+    <t xml:space="preserve">13056</t>
   </si>
   <si>
     <t xml:space="preserve">755</t>
@@ -986,7 +986,7 @@
     <t xml:space="preserve">908.11</t>
   </si>
   <si>
-    <t xml:space="preserve">Singuilucan</t>
+    <t xml:space="preserve">13057</t>
   </si>
   <si>
     <t xml:space="preserve">621</t>
@@ -1001,7 +1001,7 @@
     <t xml:space="preserve">1020.71</t>
   </si>
   <si>
-    <t xml:space="preserve">Tasquillo</t>
+    <t xml:space="preserve">13058</t>
   </si>
   <si>
     <t xml:space="preserve">369</t>
@@ -1016,7 +1016,7 @@
     <t xml:space="preserve">495.18</t>
   </si>
   <si>
-    <t xml:space="preserve">Tecozautla</t>
+    <t xml:space="preserve">13059</t>
   </si>
   <si>
     <t xml:space="preserve">1629</t>
@@ -1031,7 +1031,7 @@
     <t xml:space="preserve">3071.3</t>
   </si>
   <si>
-    <t xml:space="preserve">Tenango de Doria</t>
+    <t xml:space="preserve">13060</t>
   </si>
   <si>
     <t xml:space="preserve">590</t>
@@ -1046,7 +1046,7 @@
     <t xml:space="preserve">393.37</t>
   </si>
   <si>
-    <t xml:space="preserve">Tepeapulco</t>
+    <t xml:space="preserve">13061</t>
   </si>
   <si>
     <t xml:space="preserve">1777</t>
@@ -1061,7 +1061,7 @@
     <t xml:space="preserve">3482.35</t>
   </si>
   <si>
-    <t xml:space="preserve">Tepehuacán de Guerrero</t>
+    <t xml:space="preserve">13062</t>
   </si>
   <si>
     <t xml:space="preserve">1957</t>
@@ -1079,7 +1079,7 @@
     <t xml:space="preserve">40</t>
   </si>
   <si>
-    <t xml:space="preserve">Tepeji del Río de Ocampo</t>
+    <t xml:space="preserve">13063</t>
   </si>
   <si>
     <t xml:space="preserve">3843</t>
@@ -1097,7 +1097,7 @@
     <t xml:space="preserve">35</t>
   </si>
   <si>
-    <t xml:space="preserve">Tepetitlán</t>
+    <t xml:space="preserve">13064</t>
   </si>
   <si>
     <t xml:space="preserve">592</t>
@@ -1112,7 +1112,7 @@
     <t xml:space="preserve">934.26</t>
   </si>
   <si>
-    <t xml:space="preserve">Tetepango</t>
+    <t xml:space="preserve">13065</t>
   </si>
   <si>
     <t xml:space="preserve">389</t>
@@ -1127,7 +1127,7 @@
     <t xml:space="preserve">687.2</t>
   </si>
   <si>
-    <t xml:space="preserve">Tezontepec de Aldama</t>
+    <t xml:space="preserve">13067</t>
   </si>
   <si>
     <t xml:space="preserve">1680</t>
@@ -1142,7 +1142,7 @@
     <t xml:space="preserve">4376.41</t>
   </si>
   <si>
-    <t xml:space="preserve">Tianguistengo</t>
+    <t xml:space="preserve">13068</t>
   </si>
   <si>
     <t xml:space="preserve">247</t>
@@ -1160,7 +1160,7 @@
     <t xml:space="preserve">26</t>
   </si>
   <si>
-    <t xml:space="preserve">Tizayuca</t>
+    <t xml:space="preserve">13069</t>
   </si>
   <si>
     <t xml:space="preserve">7722</t>
@@ -1178,7 +1178,7 @@
     <t xml:space="preserve">64</t>
   </si>
   <si>
-    <t xml:space="preserve">Tlahuelilpan</t>
+    <t xml:space="preserve">13070</t>
   </si>
   <si>
     <t xml:space="preserve">689</t>
@@ -1193,7 +1193,7 @@
     <t xml:space="preserve">1189.8900000000001</t>
   </si>
   <si>
-    <t xml:space="preserve">Tlahuiltepa</t>
+    <t xml:space="preserve">13071</t>
   </si>
   <si>
     <t xml:space="preserve">874</t>
@@ -1205,7 +1205,7 @@
     <t xml:space="preserve">556.91999999999996</t>
   </si>
   <si>
-    <t xml:space="preserve">Tlanalapa</t>
+    <t xml:space="preserve">13072</t>
   </si>
   <si>
     <t xml:space="preserve">293</t>
@@ -1217,7 +1217,7 @@
     <t xml:space="preserve">612.76</t>
   </si>
   <si>
-    <t xml:space="preserve">Tlanchinol</t>
+    <t xml:space="preserve">13073</t>
   </si>
   <si>
     <t xml:space="preserve">54000</t>
@@ -1229,7 +1229,7 @@
     <t xml:space="preserve">39</t>
   </si>
   <si>
-    <t xml:space="preserve">Tlaxcoapan</t>
+    <t xml:space="preserve">13074</t>
   </si>
   <si>
     <t xml:space="preserve">564</t>
@@ -1244,7 +1244,7 @@
     <t xml:space="preserve">1522.75</t>
   </si>
   <si>
-    <t xml:space="preserve">Tolcayuca</t>
+    <t xml:space="preserve">13075</t>
   </si>
   <si>
     <t xml:space="preserve">1223</t>
@@ -1259,7 +1259,7 @@
     <t xml:space="preserve">2230.64</t>
   </si>
   <si>
-    <t xml:space="preserve">Tula de Allende</t>
+    <t xml:space="preserve">13076</t>
   </si>
   <si>
     <t xml:space="preserve">1986</t>
@@ -1277,7 +1277,7 @@
     <t xml:space="preserve">80</t>
   </si>
   <si>
-    <t xml:space="preserve">Tulancingo de Bravo</t>
+    <t xml:space="preserve">13077</t>
   </si>
   <si>
     <t xml:space="preserve">2969</t>
@@ -1295,7 +1295,7 @@
     <t xml:space="preserve">118</t>
   </si>
   <si>
-    <t xml:space="preserve">Villa de Tezontepec</t>
+    <t xml:space="preserve">13066</t>
   </si>
   <si>
     <t xml:space="preserve">740</t>
@@ -1310,7 +1310,7 @@
     <t xml:space="preserve">1531.89</t>
   </si>
   <si>
-    <t xml:space="preserve">Xochiatipan</t>
+    <t xml:space="preserve">13078</t>
   </si>
   <si>
     <t xml:space="preserve">487</t>
@@ -1325,7 +1325,7 @@
     <t xml:space="preserve">326.16000000000003</t>
   </si>
   <si>
-    <t xml:space="preserve">Xochicoatlán</t>
+    <t xml:space="preserve">13079</t>
   </si>
   <si>
     <t xml:space="preserve">383</t>
@@ -1340,7 +1340,7 @@
     <t xml:space="preserve">331.56</t>
   </si>
   <si>
-    <t xml:space="preserve">Yahualica</t>
+    <t xml:space="preserve">13080</t>
   </si>
   <si>
     <t xml:space="preserve">1037</t>
@@ -1355,7 +1355,7 @@
     <t xml:space="preserve">746.21</t>
   </si>
   <si>
-    <t xml:space="preserve">Zacualtipán de Ángeles</t>
+    <t xml:space="preserve">13081</t>
   </si>
   <si>
     <t xml:space="preserve">814</t>
@@ -1370,7 +1370,7 @@
     <t xml:space="preserve">1074.8900000000001</t>
   </si>
   <si>
-    <t xml:space="preserve">Zapotlán de Juárez</t>
+    <t xml:space="preserve">13082</t>
   </si>
   <si>
     <t xml:space="preserve">1239</t>
@@ -1385,7 +1385,7 @@
     <t xml:space="preserve">2508.0100000000002</t>
   </si>
   <si>
-    <t xml:space="preserve">Zempoala</t>
+    <t xml:space="preserve">13083</t>
   </si>
   <si>
     <t xml:space="preserve">1574</t>
@@ -1400,7 +1400,7 @@
     <t xml:space="preserve">2878.99</t>
   </si>
   <si>
-    <t xml:space="preserve">Zimapán</t>
+    <t xml:space="preserve">13084</t>
   </si>
   <si>
     <t xml:space="preserve">1738</t>
